--- a/out1.xlsx
+++ b/out1.xlsx
@@ -547,7 +547,7 @@
   <ma:dimension ref="A1:D4"/>
   <ma:sheetViews>
     <ma:sheetView tabSelected="1" workbookViewId="0">
-      <ma:selection activeCell="D2" sqref="D2"/>
+      <ma:selection activeCell="D4" sqref="D4"/>
     </ma:sheetView>
   </ma:sheetViews>
   <ma:sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -571,7 +571,9 @@
       <ma:c r="A3" s="5"/>
       <ma:c r="B3" s="1"/>
       <ma:c r="C3" s="1"/>
-      <ma:c r="D3" s="6"/>
+      <ma:c r="D3" s="6">
+        <ma:v>2</ma:v>
+      </ma:c>
     </ma:row>
     <ma:row r="4" spans="1:4" ht="17" thickBot="1">
       <ma:c r="A4" s="8" t="s">
@@ -579,11 +581,14 @@
       </ma:c>
       <ma:c r="B4" s="9"/>
       <ma:c r="C4" s="10"/>
-      <ma:c r="D4" s="7"/>
+      <ma:c r="D4" s="7">
+        <ma:f>SUM(D2:D2)</ma:f>
+        <ma:v>2</ma:v>
+      </ma:c>
     </ma:row>
   </ma:sheetData>
   <ma:mergeCells count="1">
-    <ma:mergeCell ref="A3:C3"/>
+    <ma:mergeCell ref="A4:C4"/>
   </ma:mergeCells>
   <ma:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </ma:worksheet>
